--- a/biology/Botanique/Opal_(pomme)/Opal_(pomme).xlsx
+++ b/biology/Botanique/Opal_(pomme)/Opal_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opal est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Usage : pomme à dessert
 Calibre : moyen
@@ -543,10 +557,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variété de pomme obtenue en Europe (République Tchèque) par l'équipe de l'Institut de botanique expérimentale[1].
-Son nom technique est UEB 3264/2[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variété de pomme obtenue en Europe (République Tchèque) par l'équipe de l'Institut de botanique expérimentale.
+Son nom technique est UEB 3264/2.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2009 : Inscription pour 10 ans au catalogue officiel des espèces et variétés de plantes cultivées en France[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2009 : Inscription pour 10 ans au catalogue officiel des espèces et variétés de plantes cultivées en France.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cultivar Opal résulte du croisement Golden Delicious x Topaz[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cultivar Opal résulte du croisement Golden Delicious x Topaz.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Variété diploïde, auto-stérile.
 Groupe de floraison : C, (3 jours avant Golden Delicious).</t>
@@ -668,7 +690,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Maladies :
 variété résistante aux races communes de tavelure (gène Vf),
@@ -676,7 +700,7 @@
 Cueillette : début octobre.
 Maturité pour consommation : 3 semaines après cueillette.
 Conservation: jusque début avril.
-Vigueur du cultivar : modérée[5].
+Vigueur du cultivar : modérée.
 Sa résistance aux races communes de tavelure en fait une variété de choix pour les jardins familiaux où les traitements chimiques ne sont pas systématiques, tout comme pour l'agriculture biologique.
 </t>
         </is>
